--- a/Data/Regression/news_index_dire_senti_lex.xlsx
+++ b/Data/Regression/news_index_dire_senti_lex.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02658902871759978</v>
+        <v>-0.03266639581946405</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03659685103840481</v>
+        <v>-0.0258047125287352</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03373925682188968</v>
+        <v>-0.02559912502323979</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02578858998811164</v>
+        <v>-0.02380668575223306</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0161243861876122</v>
+        <v>-0.02131239007875948</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0241862181146183</v>
+        <v>-0.02857572392233723</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02614976939181613</v>
+        <v>-0.02254699884633552</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.03837341947868435</v>
+        <v>-0.03353064274629017</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0280468206599561</v>
+        <v>-0.02089615116441071</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02386808765777743</v>
+        <v>-0.02177858897602191</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0257749564812499</v>
+        <v>-0.0260331902025478</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02370399150870832</v>
+        <v>-0.02449992375089411</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01467689334326076</v>
+        <v>-0.02875254117065977</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03611290281984141</v>
+        <v>-0.02596251025054838</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03396596197778123</v>
+        <v>-0.0235743021515602</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02637182153444667</v>
+        <v>-0.02274485628268851</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02637441324186899</v>
+        <v>-0.02500792179897348</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03025985889786315</v>
+        <v>-0.02197292345334734</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02368697892469441</v>
+        <v>-0.02100141826695027</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02490645403503861</v>
+        <v>-0.02367308072787095</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01692190490687587</v>
+        <v>-0.01957615018774439</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.02473007931559611</v>
+        <v>-0.02697852574425538</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.02759786745120892</v>
+        <v>-0.02066371542353748</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.02835042290832555</v>
+        <v>-0.02636153327169963</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.0280436257506807</v>
+        <v>-0.02846057283157402</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.0345004517699655</v>
+        <v>-0.02238498890952506</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.02681359055429437</v>
+        <v>-0.02494313775501038</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.02578178153158845</v>
+        <v>-0.0269146173730409</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.02424520268887919</v>
+        <v>-0.02573193994248934</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.02377060243567996</v>
+        <v>-0.03110252305755529</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.02064537869889204</v>
+        <v>-0.02410303529801954</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.02511004986429695</v>
+        <v>-0.02067548909105747</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.02223486575419474</v>
+        <v>-0.03009581538159047</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.01797720362322046</v>
+        <v>-0.02087760417115756</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.02368627572559165</v>
+        <v>-0.02192229977088843</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02665437915451643</v>
+        <v>-0.02307604426790411</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.02867559386016257</v>
+        <v>-0.02222928642061529</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.01788165611177962</v>
+        <v>-0.02077057752663122</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.01910898390825476</v>
+        <v>-0.02099015128047536</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.02137352644202785</v>
+        <v>-0.0193200763666535</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01631456607133607</v>
+        <v>-0.02535636116052302</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.02140445653835842</v>
+        <v>-0.02346060704173854</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.02894424341940836</v>
+        <v>-0.02428034189042015</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.0227273416711014</v>
+        <v>-0.02262213794335965</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.01699968364958535</v>
+        <v>-0.02497713974151024</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.01709323140241971</v>
+        <v>-0.02100558117549082</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.01469037828743635</v>
+        <v>-0.02081015362380166</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.01199192514862073</v>
+        <v>-0.02317580986539348</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.02003451553149832</v>
+        <v>-0.02191889532195409</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.02489345044549283</v>
+        <v>-0.02382095007334549</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.02169288347467682</v>
+        <v>-0.02340119722086512</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.02138137019991439</v>
+        <v>-0.02282909537633654</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.018632342520991</v>
+        <v>-0.01781868356928635</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.01744565015184044</v>
+        <v>-0.02154334765568612</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.01659283596302628</v>
+        <v>-0.01705823625665786</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.01403487057189919</v>
+        <v>-0.01901344535251021</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.02776729649123633</v>
+        <v>-0.02148518841590039</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.02183737665381818</v>
+        <v>-0.01865476407628346</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.02544154624338649</v>
+        <v>-0.01801334661275172</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.005862572655817524</v>
+        <v>-0.02464620661974393</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.01379816501852081</v>
+        <v>-0.01818252317426559</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.003578228541420485</v>
+        <v>-0.0147833608942196</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.02615074815335922</v>
+        <v>-0.01782155549307191</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.01680873121822705</v>
+        <v>-0.02154719889795706</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.008956666258525934</v>
+        <v>-0.01762957248936082</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.02898193219285183</v>
+        <v>-0.02142376866705218</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.02800956096875948</v>
+        <v>-0.01445747456330716</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.007596682775075409</v>
+        <v>-0.02184155161261235</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.01901928952101606</v>
+        <v>-0.02385806674394921</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.01025210485026722</v>
+        <v>-0.02557198396169551</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.02313050923324004</v>
+        <v>-0.02469676606568797</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.02067185266402807</v>
+        <v>-0.01609736438754729</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.0287336204651268</v>
+        <v>-0.0257878265695732</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.02262307912378176</v>
+        <v>-0.02045361513914182</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.01644310255630689</v>
+        <v>-0.0115893870873614</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.01681263236810475</v>
+        <v>-0.01823847293462199</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.02332379277198715</v>
+        <v>-0.02183389355522541</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.01830580468695563</v>
+        <v>-0.02552931026578346</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.02722418792934567</v>
+        <v>-0.02104042485115559</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.02026746088894979</v>
+        <v>-0.02514895777658725</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.02561194795466826</v>
+        <v>-0.01932154635241261</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.02022433993265577</v>
+        <v>-0.01954067125496155</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.02455353558021775</v>
+        <v>-0.0198104644845435</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.01361943746243295</v>
+        <v>-0.01590357739319953</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.01884142671689379</v>
+        <v>-0.01471170694767011</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.01294998895235085</v>
+        <v>-0.02199175972359563</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.02566470045678796</v>
+        <v>-0.0238034139704842</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.02482999679297839</v>
+        <v>-0.01699138760490115</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.02159713491240889</v>
+        <v>-0.02554617712187109</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.01702691712880006</v>
+        <v>-0.0204601105644818</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.01493407440912033</v>
+        <v>-0.01336011631101138</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.02227807086307161</v>
+        <v>-0.02412297340352627</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.0263138554121998</v>
+        <v>-0.01609412468787607</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.01254805072123598</v>
+        <v>-0.02077390088379378</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.02855281134295555</v>
+        <v>-0.01836539260708483</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.01135554833840453</v>
+        <v>-0.01583218913859348</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.01791152418330264</v>
+        <v>-0.02323118035396288</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.0174722469400037</v>
+        <v>-0.01021131428839306</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.01894945092820953</v>
+        <v>-0.02723028526802156</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.02871134793134146</v>
+        <v>-0.01960152092071999</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.02191904230114453</v>
+        <v>-0.02583923046467027</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.02129900173425994</v>
+        <v>-0.01686235901295218</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.02411687622926961</v>
+        <v>-0.01783201535490251</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.02264229206066769</v>
+        <v>-0.01731777374142468</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.02692551029912673</v>
+        <v>-0.02126628248751002</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.03026812474605179</v>
+        <v>-0.01834265933903891</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.01900966781255537</v>
+        <v>-0.01716206915832675</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.02720168677162531</v>
+        <v>-0.01919269710896402</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.02223528466550226</v>
+        <v>-0.02082698656749277</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.02057917904423811</v>
+        <v>-0.01946402750796866</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.02812389788025525</v>
+        <v>-0.01927820383739544</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.01677667063447599</v>
+        <v>-0.02045981049739068</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.0213995972376166</v>
+        <v>-0.01961993094534587</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.01412837444491199</v>
+        <v>-0.02353409582898533</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.01954563954482277</v>
+        <v>-0.0121388985950954</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.02393093033547714</v>
+        <v>-0.02232684573013712</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.03017733387088221</v>
+        <v>-0.02884866484550723</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.02461831011397472</v>
+        <v>-0.02529227843381176</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.02085727747515946</v>
+        <v>-0.01785763330406716</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.0279410170337065</v>
+        <v>-0.01948049122383333</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.01303231260639171</v>
+        <v>-0.02773862999037021</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.02761354696612915</v>
+        <v>-0.04542797897625708</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.02188977561248197</v>
+        <v>-0.0223130488273842</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.02133885059244747</v>
+        <v>-0.02261381770439037</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.01488155930653649</v>
+        <v>-0.0216723909916532</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.02257832612064089</v>
+        <v>-0.02246627284653081</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.02248688246965217</v>
+        <v>-0.0239334797717263</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.01799325841477558</v>
+        <v>-0.02020047526093753</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.01892952612463568</v>
+        <v>-0.02235140857520265</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.01384443524872604</v>
+        <v>-0.01202819028766271</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.01603476094356947</v>
+        <v>-0.01817008044088484</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.02359296428873976</v>
+        <v>-0.02345820603946696</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.02106108305731327</v>
+        <v>-0.02283371304123076</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-0.02001995247646636</v>
+        <v>-0.02046909356315854</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.02317491518964861</v>
+        <v>-0.03246334912314441</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.01434541159780759</v>
+        <v>-0.0158186548655716</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.01775357882634756</v>
+        <v>-0.02505422632235139</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.01451679625311197</v>
+        <v>-0.01819938870117911</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.01702184527073458</v>
+        <v>-0.02252029171411651</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.01345927373182264</v>
+        <v>-0.01766942043965907</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.0209061065959643</v>
+        <v>-0.01464452564613848</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.02026305564785055</v>
+        <v>-0.02039929183050968</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.01758103467572792</v>
+        <v>-0.01290926106663154</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.01885195132884241</v>
+        <v>-0.02032686660283481</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.02350413081700911</v>
+        <v>-0.02322031272876785</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-0.02711318028884597</v>
+        <v>-0.0257826475225307</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.01943418173402659</v>
+        <v>-0.02448741488983901</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.0110071645354927</v>
+        <v>-0.02243746805940054</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.01288623431702976</v>
+        <v>-0.01030293512942001</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.01431415686006627</v>
+        <v>-0.0139722502151487</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.02151181120000551</v>
+        <v>-0.01651859055647635</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.02412907616290433</v>
+        <v>-0.02502895503425962</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.01965801700125789</v>
+        <v>-0.02162182263667318</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.02103289071710176</v>
+        <v>-0.02004423703024332</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.01956273261841528</v>
+        <v>-0.01989299560025179</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.01859787170756055</v>
+        <v>-0.01804745936156473</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.02573641563090536</v>
+        <v>-0.02232962056853375</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.01915520359020083</v>
+        <v>-0.01589101479125021</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.02106122495293057</v>
+        <v>-0.01866060471235459</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.02222748002951598</v>
+        <v>-0.0246032460831847</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.03145093358605412</v>
+        <v>-0.02946987948950522</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.02798057358821221</v>
+        <v>-0.02529245809014858</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.02217505290952916</v>
+        <v>-0.02382623713446426</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-0.02929552990773289</v>
+        <v>-0.04058453380279594</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.02514899060454777</v>
+        <v>-0.02997606378402229</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.03372531424499087</v>
+        <v>-0.03042277987464468</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.02294076867845317</v>
+        <v>-0.02718999456170803</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.02405924711577742</v>
+        <v>-0.03130716292075438</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.02744336442165628</v>
+        <v>-0.03441997602283095</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-0.02535671320740686</v>
+        <v>-0.02585947236838482</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.02417920803531762</v>
+        <v>-0.02073459699592596</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-0.03317243405335215</v>
+        <v>-0.02928694535483226</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.02287397214432385</v>
+        <v>-0.01873819647039927</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.02911977254198069</v>
+        <v>-0.01968434973348402</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.01717870872182845</v>
+        <v>-0.0158844866270885</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-0.02845836876680452</v>
+        <v>-0.02650839955368024</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.02918677180942334</v>
+        <v>-0.02846721419193361</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-0.02984543926295789</v>
+        <v>-0.02310388811051973</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.01918498657333501</v>
+        <v>-0.03106127306794444</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.02143414681163032</v>
+        <v>-0.02830165239104224</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.02897421599587103</v>
+        <v>-0.02464584890549437</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.02707097768328132</v>
+        <v>-0.01925481902387813</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.02026336412445779</v>
+        <v>-0.02940001842403357</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-0.02108725829265931</v>
+        <v>-0.02722325035782245</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-0.02733049681963706</v>
+        <v>-0.02924576772226581</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-0.03807533395333926</v>
+        <v>-0.03225407825747239</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-0.02502100259106788</v>
+        <v>-0.0250127401802909</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-0.02747662323654746</v>
+        <v>-0.03135731581082643</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.01964140113990053</v>
+        <v>-0.01741673643032746</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-0.02444164356710953</v>
+        <v>-0.03069831006444704</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-0.02224350806856587</v>
+        <v>-0.02743130359680805</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-0.02219432698445202</v>
+        <v>-0.03257815818747583</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-0.01994032865998601</v>
+        <v>-0.02490719411440949</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-0.02051763579872956</v>
+        <v>-0.02391665285692467</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-0.0194356175914212</v>
+        <v>-0.02046589176717815</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.01779819527152275</v>
+        <v>-0.03294120703046074</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-0.01816410273038646</v>
+        <v>-0.03091500393899094</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.0225264244524308</v>
+        <v>-0.03179093428148136</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-0.02663322351473348</v>
+        <v>-0.03312070213036013</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-0.02947543966858329</v>
+        <v>-0.03220948026449582</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-0.03344893156207441</v>
+        <v>-0.03326812904617264</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-0.02630004870765233</v>
+        <v>-0.03440150695410062</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-0.02611176788420029</v>
+        <v>-0.02995350720540576</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-0.02646395536755792</v>
+        <v>-0.03351500981247996</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-0.03182784990094931</v>
+        <v>-0.03693658950830013</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-0.03313398680995198</v>
+        <v>-0.03289663646344139</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-0.02465932764420106</v>
+        <v>-0.03191782230414525</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-0.02713630249704383</v>
+        <v>-0.02975777826815361</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-0.02972151187482253</v>
+        <v>-0.02636838482904053</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-0.02796503880923944</v>
+        <v>-0.03622240411235896</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-0.02751395382854086</v>
+        <v>-0.03645369001431892</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-0.01875115879260296</v>
+        <v>-0.03078474799692222</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-0.01937030736334875</v>
+        <v>-0.0357984558000513</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-0.01790507016488608</v>
+        <v>-0.02581179472209149</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.01192549915183861</v>
+        <v>-0.01717674479526701</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.01990705080719382</v>
+        <v>-0.02010876887012074</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.01718855145629839</v>
+        <v>-0.01674757189575299</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.01615189327832664</v>
+        <v>-0.02773925635888678</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.01841037761277541</v>
+        <v>-0.01961260466684748</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.02298910986158498</v>
+        <v>-0.02117834200981797</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-0.02182210894692216</v>
+        <v>-0.01976458830254513</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-0.01524331168484837</v>
+        <v>-0.01932667619253444</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-0.01695354790469441</v>
+        <v>-0.02229938120876188</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.01590910040303775</v>
+        <v>-0.02102549152200592</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.01783718934752364</v>
+        <v>-0.01897239533846013</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-0.02003413914311167</v>
+        <v>-0.02585502000118519</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-0.02249523138690336</v>
+        <v>-0.02574719394476153</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-0.01887831474557914</v>
+        <v>-0.01835346740701706</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-0.02634750651825475</v>
+        <v>-0.02920719780903485</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-0.02516519555070985</v>
+        <v>-0.0264709473450563</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-0.02213357189592654</v>
+        <v>-0.03145692420376809</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-0.02371597894057519</v>
+        <v>-0.02448574163605132</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-0.02376699928258613</v>
+        <v>-0.0314122715757794</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-0.01874632549208655</v>
+        <v>-0.02526061255222234</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-0.03168602962783588</v>
+        <v>-0.02764586921379213</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-0.02069186263211586</v>
+        <v>-0.02155424616786496</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-0.01768601270981724</v>
+        <v>-0.02183543437540375</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-0.02466723684381335</v>
+        <v>-0.01935315453808796</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-0.0261976330819076</v>
+        <v>-0.02544851968254008</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-0.02760493507783851</v>
+        <v>-0.02886299865277028</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-0.0257470879496266</v>
+        <v>-0.02989390622333013</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-0.02639509824380641</v>
+        <v>-0.02880256719235139</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-0.02192787974102268</v>
+        <v>-0.02846738223481082</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-0.02910231474773865</v>
+        <v>-0.0338875790022295</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-0.02210063437005552</v>
+        <v>-0.02346228607671526</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-0.02313716408838768</v>
+        <v>-0.02671953878365238</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-0.02255916325985874</v>
+        <v>-0.02737596545632689</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-0.01886560551268825</v>
+        <v>-0.02969296688447982</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-0.01937093042108932</v>
+        <v>-0.02304969382803437</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-0.01725308750318738</v>
+        <v>-0.02425320096976695</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>-0.01823126598546166</v>
+        <v>-0.02082876510225014</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-0.01591025797594535</v>
+        <v>-0.01834238248267899</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-0.01750532085854297</v>
+        <v>-0.02369176128250521</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>-0.0202275649229929</v>
+        <v>-0.02471994088867233</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-0.0210021494339125</v>
+        <v>-0.0247085086873458</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-0.01992604662751761</v>
+        <v>-0.0235718960641852</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-0.01957266215341476</v>
+        <v>-0.02685757885713611</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-0.01251663804506573</v>
+        <v>-0.02073651657806754</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-0.01321151898733176</v>
+        <v>-0.01865121070061128</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-0.01794076247647831</v>
+        <v>-0.02097649563433071</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-0.02200075318891686</v>
+        <v>-0.03031983316900639</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-0.01938579060440549</v>
+        <v>-0.02211383333357326</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-0.01870602196612137</v>
+        <v>-0.01912143089132317</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-0.01384406295085741</v>
+        <v>-0.01998672732024216</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-0.02080327832552759</v>
+        <v>-0.02290328610619359</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-0.01733575043336734</v>
+        <v>-0.02087384407367232</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-0.01229575103121912</v>
+        <v>-0.02497773255582983</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-0.01677835150210587</v>
+        <v>-0.01930741552389835</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-0.01058269903772421</v>
+        <v>-0.01702922490832345</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-0.02232957851691462</v>
+        <v>-0.02470870213610068</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-0.01869785632948752</v>
+        <v>-0.02427060281660702</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-0.02040208872252891</v>
+        <v>-0.02471845129656947</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.01257125835813135</v>
+        <v>-0.01466438975162095</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-0.0115381023928888</v>
+        <v>-0.01106430751507057</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.00913783687118115</v>
+        <v>-0.01024186549457536</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-0.008413101394844989</v>
+        <v>-0.01150932914024821</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-0.009996748684466785</v>
+        <v>-0.01074095713084</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-0.008789548744499866</v>
+        <v>-0.01481376047461434</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-0.007114946097548305</v>
+        <v>-0.003494357468353827</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-0.009695269203105176</v>
+        <v>-0.007673106448769389</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-0.005483140098888363</v>
+        <v>-0.007721194183357717</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-0.005910982809727616</v>
+        <v>-0.002045994762540528</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-0.005636356274970142</v>
+        <v>-0.01202530794830437</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-0.007558559484412245</v>
+        <v>-0.005715646364142856</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-0.003030160525642122</v>
+        <v>0.0006574012501148594</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-0.005189630300694833</v>
+        <v>-0.009726212906924379</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.001974907255937108</v>
+        <v>-0.0002569898632966786</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.01124346665991055</v>
+        <v>-0.005897549413765769</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-0.0101636320005389</v>
+        <v>0.005010206371907738</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-0.01445463315383199</v>
+        <v>-0.01383898526216329</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-0.01673657970981394</v>
+        <v>-0.009643221958122557</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-0.01344741079103715</v>
+        <v>-0.0156993595277673</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.008313128170670146</v>
+        <v>-0.01867574065575521</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-0.009722378742117205</v>
+        <v>-0.01505592721976217</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.004779883919512213</v>
+        <v>-0.01444346152981016</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-0.01383790840037499</v>
+        <v>-0.0182906515619989</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-0.007577162812614046</v>
+        <v>-0.01552020412797315</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-0.009518633586543434</v>
+        <v>-0.01532479652463791</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-0.004329659476693284</v>
+        <v>-0.01744348018355702</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-0.008265935407055959</v>
+        <v>-0.01127949091326964</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-0.004679834937556859</v>
+        <v>-0.0129850789851776</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.01115427719132994</v>
+        <v>-0.01840815932950099</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-0.008016256591914741</v>
+        <v>-0.01123006824986644</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.003609491350254889</v>
+        <v>-0.008953962370880635</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.008948831804784027</v>
+        <v>-0.01281492542577019</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.006457740878689009</v>
+        <v>-0.01907347450059088</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-0.0104661216267485</v>
+        <v>-0.0219742000624162</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-0.008450757846542811</v>
+        <v>-0.02259823450066943</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-0.007726117539996543</v>
+        <v>-0.01701788383939583</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-0.01240623091686341</v>
+        <v>-0.02330495514050189</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-0.01581810585326551</v>
+        <v>-0.02385274791919975</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.01265184572331376</v>
+        <v>-0.02016354041057547</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-0.0191243731678986</v>
+        <v>-0.02145584515874278</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-0.01445536506495737</v>
+        <v>-0.02534784502045746</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-0.01112680013150645</v>
+        <v>-0.02144136455724137</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-0.01501800589099968</v>
+        <v>-0.03494902189357998</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-0.01212803769222639</v>
+        <v>-0.01981920700462496</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.01538930842783944</v>
+        <v>-0.01993349774150849</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-0.01218593777666602</v>
+        <v>-0.02279083280907101</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>-0.009230654494356097</v>
+        <v>-0.02510873856717642</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-0.01292415542120998</v>
+        <v>-0.01637685971457829</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.01049041067830351</v>
+        <v>-0.0156797890077201</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-0.01185503528909148</v>
+        <v>-0.01938833619269399</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-0.009657379218344976</v>
+        <v>-0.02698054919876918</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.006440439304332244</v>
+        <v>-0.02056568418455323</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-0.01507787697573094</v>
+        <v>-0.01993043859282121</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-0.01211052311461028</v>
+        <v>-0.02160943295471916</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-0.01456899453083198</v>
+        <v>-0.02566143477770652</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-0.01278626220197792</v>
+        <v>-0.01803936287344823</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>-0.01828516410063411</v>
+        <v>-0.02344465559243445</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>-0.01984698783794801</v>
+        <v>-0.02384178159196551</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>-0.02479644338697006</v>
+        <v>-0.03455880173361706</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>-0.01672036007358078</v>
+        <v>-0.02551806982940371</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-0.01726446683659978</v>
+        <v>-0.02921750104325824</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-0.01750746967317075</v>
+        <v>-0.03094712780235799</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-0.01472772376310918</v>
+        <v>-0.02197425321328522</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_dire_senti_lex.xlsx
+++ b/Data/Regression/news_index_dire_senti_lex.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03266639581946405</v>
+        <v>-0.03483513924617413</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0258047125287352</v>
+        <v>-0.02780180534011851</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02559912502323979</v>
+        <v>-0.02677205938290674</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02380668575223306</v>
+        <v>-0.0265507223725879</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02131239007875948</v>
+        <v>-0.02406968689666282</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02857572392233723</v>
+        <v>-0.03042593777643738</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02254699884633552</v>
+        <v>-0.02573433101419649</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.03353064274629017</v>
+        <v>-0.03091495275348994</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02089615116441071</v>
+        <v>-0.0221635002324869</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02177858897602191</v>
+        <v>-0.02407406043480976</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0260331902025478</v>
+        <v>-0.02810071713554566</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02449992375089411</v>
+        <v>-0.02578867376357476</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02875254117065977</v>
+        <v>-0.03118807640756811</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02596251025054838</v>
+        <v>-0.02812775130035834</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0235743021515602</v>
+        <v>-0.02756988481764433</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02274485628268851</v>
+        <v>-0.02468929712258739</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02500792179897348</v>
+        <v>-0.02535792507668315</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02197292345334734</v>
+        <v>-0.02399585213615723</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02100141826695027</v>
+        <v>-0.02070275133860505</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02367308072787095</v>
+        <v>-0.02523318948040841</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01957615018774439</v>
+        <v>-0.02048119653513656</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.02697852574425538</v>
+        <v>-0.02725980834845483</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.02066371542353748</v>
+        <v>-0.01839358207860647</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.02636153327169963</v>
+        <v>-0.02444633686632296</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.02846057283157402</v>
+        <v>-0.03091041442159247</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.02238498890952506</v>
+        <v>-0.02631092085492751</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.02494313775501038</v>
+        <v>-0.02423024279039792</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0269146173730409</v>
+        <v>-0.0238187417972518</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.02573193994248934</v>
+        <v>-0.02678923339614811</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.03110252305755529</v>
+        <v>-0.03192632065220356</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.02410303529801954</v>
+        <v>-0.02599644627097712</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.02067548909105747</v>
+        <v>-0.0238486895952184</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.03009581538159047</v>
+        <v>-0.03188671826601524</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.02087760417115756</v>
+        <v>-0.02414700486451756</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.02192229977088843</v>
+        <v>-0.02404332561749558</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02307604426790411</v>
+        <v>-0.02535672100542916</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.02222928642061529</v>
+        <v>-0.02500582194746776</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.02077057752663122</v>
+        <v>-0.02154335839518193</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.02099015128047536</v>
+        <v>-0.02217873732237004</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.0193200763666535</v>
+        <v>-0.02016766784702988</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.02535636116052302</v>
+        <v>-0.02514697958212673</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.02346060704173854</v>
+        <v>-0.02264303448740381</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.02428034189042015</v>
+        <v>-0.02291142931701743</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.02262213794335965</v>
+        <v>-0.0221004869278819</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.02497713974151024</v>
+        <v>-0.0239813775255277</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.02100558117549082</v>
+        <v>-0.0232755327084051</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.02081015362380166</v>
+        <v>-0.0217609865375087</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.02317580986539348</v>
+        <v>-0.02535010223973967</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.02191889532195409</v>
+        <v>-0.02674752456116081</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.02382095007334549</v>
+        <v>-0.02583622319031664</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.02340119722086512</v>
+        <v>-0.02378254039006525</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.02282909537633654</v>
+        <v>-0.02237163123998089</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.01781868356928635</v>
+        <v>-0.02007563609354173</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.02154334765568612</v>
+        <v>-0.02435180411302462</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.01705823625665786</v>
+        <v>-0.01754871818850393</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.01901344535251021</v>
+        <v>-0.02479855488287467</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.02148518841590039</v>
+        <v>-0.02361179034567818</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.01865476407628346</v>
+        <v>-0.02121614044962643</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.01801334661275172</v>
+        <v>-0.02305468926037055</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.02464620661974393</v>
+        <v>-0.02453221175290393</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.01818252317426559</v>
+        <v>-0.01989388775089689</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.0147833608942196</v>
+        <v>-0.01739622533653437</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.01782155549307191</v>
+        <v>-0.02131919881148122</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.02154719889795706</v>
+        <v>-0.02465684321181252</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.01762957248936082</v>
+        <v>-0.01847031132889334</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.02142376866705218</v>
+        <v>-0.02328391027286641</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.01445747456330716</v>
+        <v>-0.01626950831469407</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.02184155161261235</v>
+        <v>-0.0247729933023079</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.02385806674394921</v>
+        <v>-0.02548617663112593</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.02557198396169551</v>
+        <v>-0.02731632193935032</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.02469676606568797</v>
+        <v>-0.0249677526081199</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.01609736438754729</v>
+        <v>-0.01817188409747618</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.0257878265695732</v>
+        <v>-0.0244582140837799</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.02045361513914182</v>
+        <v>-0.022964499703109</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.0115893870873614</v>
+        <v>-0.0151021263476956</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.01823847293462199</v>
+        <v>-0.02032823326735024</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.02183389355522541</v>
+        <v>-0.02272921953614071</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.02552931026578346</v>
+        <v>-0.0270239257701733</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.02104042485115559</v>
+        <v>-0.02105658607302094</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.02514895777658725</v>
+        <v>-0.02568782944149327</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.01932154635241261</v>
+        <v>-0.01663009764563688</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.01954067125496155</v>
+        <v>-0.02275886087805306</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.0198104644845435</v>
+        <v>-0.01979279276069033</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.01590357739319953</v>
+        <v>-0.02004650219029981</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.01471170694767011</v>
+        <v>-0.01728486802504291</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.02199175972359563</v>
+        <v>-0.02781723793428487</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.0238034139704842</v>
+        <v>-0.02538986164497075</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.01699138760490115</v>
+        <v>-0.0159252498840334</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.02554617712187109</v>
+        <v>-0.02782190433169375</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.0204601105644818</v>
+        <v>-0.01907949311453533</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.01336011631101138</v>
+        <v>-0.01632967879611967</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.02412297340352627</v>
+        <v>-0.02120308285041016</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.01609412468787607</v>
+        <v>-0.01784528847684357</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.02077390088379378</v>
+        <v>-0.02523547087535569</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.01836539260708483</v>
+        <v>-0.02156249752586591</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.01583218913859348</v>
+        <v>-0.01801802652528136</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.02323118035396288</v>
+        <v>-0.02155506931777446</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.01021131428839306</v>
+        <v>-0.01259154036256287</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.02723028526802156</v>
+        <v>-0.02765056965418368</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.01960152092071999</v>
+        <v>-0.01890142023785136</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.02583923046467027</v>
+        <v>-0.02888009248030483</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.01686235901295218</v>
+        <v>-0.02064834606182466</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.01783201535490251</v>
+        <v>-0.02135514061999022</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.01731777374142468</v>
+        <v>-0.02172460522186709</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.02126628248751002</v>
+        <v>-0.02349847439864702</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.01834265933903891</v>
+        <v>-0.02146245119711484</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.01716206915832675</v>
+        <v>-0.01852638552639882</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.01919269710896402</v>
+        <v>-0.02145337256537296</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.02082698656749277</v>
+        <v>-0.02011353966896525</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.01946402750796866</v>
+        <v>-0.01876586973297597</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.01927820383739544</v>
+        <v>-0.02306457181751407</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.02045981049739068</v>
+        <v>-0.01924228097872141</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.01961993094534587</v>
+        <v>-0.02414290033054114</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.02353409582898533</v>
+        <v>-0.0262653092356419</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.0121388985950954</v>
+        <v>-0.01548861126882934</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.02232684573013712</v>
+        <v>-0.02278503815108887</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.02884866484550723</v>
+        <v>-0.03246897069765552</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.02529227843381176</v>
+        <v>-0.02899288380872579</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.01785763330406716</v>
+        <v>-0.02188832654286674</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.01948049122383333</v>
+        <v>-0.02264581809847038</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.02773862999037021</v>
+        <v>-0.03042220819154975</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.04542797897625708</v>
+        <v>-0.04111154824274142</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.0223130488273842</v>
+        <v>-0.02256459138835923</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.02261381770439037</v>
+        <v>-0.02479672834773007</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.0216723909916532</v>
+        <v>-0.0234500053890287</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.02246627284653081</v>
+        <v>-0.02436899791279344</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.0239334797717263</v>
+        <v>-0.02366406315182096</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.02020047526093753</v>
+        <v>-0.01943854003275162</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.02235140857520265</v>
+        <v>-0.02338223775659709</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.01202819028766271</v>
+        <v>-0.01392132051228864</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.01817008044088484</v>
+        <v>-0.01755523085473898</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.02345820603946696</v>
+        <v>-0.02444452285028562</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.02283371304123076</v>
+        <v>-0.02584971494249019</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-0.02046909356315854</v>
+        <v>-0.02088446139170676</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.03246334912314441</v>
+        <v>-0.03176168314935991</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.0158186548655716</v>
+        <v>-0.01844138335646934</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.02505422632235139</v>
+        <v>-0.02516341622028252</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.01819938870117911</v>
+        <v>-0.01994094813168854</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.02252029171411651</v>
+        <v>-0.02281246774232542</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.01766942043965907</v>
+        <v>-0.01900679115613352</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.01464452564613848</v>
+        <v>-0.01607099658127687</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.02039929183050968</v>
+        <v>-0.01954944960334088</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.01290926106663154</v>
+        <v>-0.01564752203823437</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.02032686660283481</v>
+        <v>-0.02247870774744536</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.02322031272876785</v>
+        <v>-0.02291004085517338</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-0.0257826475225307</v>
+        <v>-0.02488402802640413</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.02448741488983901</v>
+        <v>-0.02442732764783951</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.02243746805940054</v>
+        <v>-0.02042063178641237</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.01030293512942001</v>
+        <v>-0.01208705033848407</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.0139722502151487</v>
+        <v>-0.01568416388741203</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.01651859055647635</v>
+        <v>-0.019242193548459</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.02502895503425962</v>
+        <v>-0.02411193344853425</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.02162182263667318</v>
+        <v>-0.02193264576071789</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.02004423703024332</v>
+        <v>-0.02096899131892598</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.01989299560025179</v>
+        <v>-0.02528433070324596</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.01804745936156473</v>
+        <v>-0.01920741432885877</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.02232962056853375</v>
+        <v>-0.02729419740734658</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.01589101479125021</v>
+        <v>-0.01814530467674255</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.01866060471235459</v>
+        <v>-0.0227248374259685</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.0246032460831847</v>
+        <v>-0.02790025047902412</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.02946987948950522</v>
+        <v>-0.03305636885832305</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.02529245809014858</v>
+        <v>-0.02520098460368215</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.02382623713446426</v>
+        <v>-0.02592893077883512</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-0.04058453380279594</v>
+        <v>-0.03956302147158382</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.02997606378402229</v>
+        <v>-0.02943775531922492</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.03042277987464468</v>
+        <v>-0.02893815797302943</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.02718999456170803</v>
+        <v>-0.03079074024121703</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.03130716292075438</v>
+        <v>-0.03070414965139519</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.03441997602283095</v>
+        <v>-0.0300345436054603</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-0.02585947236838482</v>
+        <v>-0.02430602329987745</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.02073459699592596</v>
+        <v>-0.02337942644811212</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-0.02928694535483226</v>
+        <v>-0.03331255200849741</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.01873819647039927</v>
+        <v>-0.02453855930819127</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.01968434973348402</v>
+        <v>-0.02386980330850016</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.0158844866270885</v>
+        <v>-0.02071658313024933</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-0.02650839955368024</v>
+        <v>-0.02722252138577281</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.02846721419193361</v>
+        <v>-0.02953377538543618</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-0.02310388811051973</v>
+        <v>-0.0283768458017023</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.03106127306794444</v>
+        <v>-0.0375349272538015</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.02830165239104224</v>
+        <v>-0.02880731323780933</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.02464584890549437</v>
+        <v>-0.02780078517503657</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.01925481902387813</v>
+        <v>-0.02115780833193263</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.02940001842403357</v>
+        <v>-0.02838953359538429</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-0.02722325035782245</v>
+        <v>-0.02745639776796858</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-0.02924576772226581</v>
+        <v>-0.03101782690369313</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-0.03225407825747239</v>
+        <v>-0.03303054046430019</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-0.0250127401802909</v>
+        <v>-0.02973135715134155</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-0.03135731581082643</v>
+        <v>-0.03265790306019253</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.01741673643032746</v>
+        <v>-0.020340158777219</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-0.03069831006444704</v>
+        <v>-0.02831434112622933</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-0.02743130359680805</v>
+        <v>-0.03092778305190964</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-0.03257815818747583</v>
+        <v>-0.03339388511788009</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-0.02490719411440949</v>
+        <v>-0.0247013182780065</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-0.02391665285692467</v>
+        <v>-0.02749347391494387</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-0.02046589176717815</v>
+        <v>-0.02085799165074252</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.03294120703046074</v>
+        <v>-0.0356465308725824</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-0.03091500393899094</v>
+        <v>-0.03039570691128403</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.03179093428148136</v>
+        <v>-0.03391818563756056</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-0.03312070213036013</v>
+        <v>-0.03601841709599966</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-0.03220948026449582</v>
+        <v>-0.03157160582581173</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-0.03326812904617264</v>
+        <v>-0.03262573398275572</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-0.03440150695410062</v>
+        <v>-0.03850019116968425</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-0.02995350720540576</v>
+        <v>-0.03564113773781161</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-0.03351500981247996</v>
+        <v>-0.03747473549645775</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-0.03693658950830013</v>
+        <v>-0.03898722944600592</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-0.03289663646344139</v>
+        <v>-0.03628598872755228</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-0.03191782230414525</v>
+        <v>-0.03679339013605794</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-0.02975777826815361</v>
+        <v>-0.03456182138870665</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-0.02636838482904053</v>
+        <v>-0.03078624268817525</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-0.03622240411235896</v>
+        <v>-0.03958999621179007</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-0.03645369001431892</v>
+        <v>-0.03933309354905162</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-0.03078474799692222</v>
+        <v>-0.03115310052818395</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-0.0357984558000513</v>
+        <v>-0.0369356226760968</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-0.02581179472209149</v>
+        <v>-0.02851805703223843</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.01717674479526701</v>
+        <v>-0.01922806374758499</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.02010876887012074</v>
+        <v>-0.02055768425889582</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.01674757189575299</v>
+        <v>-0.02043332351947887</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.02773925635888678</v>
+        <v>-0.03090260212097383</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.01961260466684748</v>
+        <v>-0.0201831805429125</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.02117834200981797</v>
+        <v>-0.02226890958998916</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-0.01976458830254513</v>
+        <v>-0.01385464980128696</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-0.01932667619253444</v>
+        <v>-0.02044894959807843</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-0.02229938120876188</v>
+        <v>-0.02073366168860228</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.02102549152200592</v>
+        <v>-0.01638515077642506</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.01897239533846013</v>
+        <v>-0.02522094997525046</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-0.02585502000118519</v>
+        <v>-0.02492360060360885</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-0.02574719394476153</v>
+        <v>-0.0259751038868403</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-0.01835346740701706</v>
+        <v>-0.01970882883685183</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-0.02920719780903485</v>
+        <v>-0.03098869049592045</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-0.0264709473450563</v>
+        <v>-0.0263093013801826</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-0.03145692420376809</v>
+        <v>-0.03070938620057818</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-0.02448574163605132</v>
+        <v>-0.02468508521283437</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-0.0314122715757794</v>
+        <v>-0.03251953523995683</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-0.02526061255222234</v>
+        <v>-0.02789160981022884</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-0.02764586921379213</v>
+        <v>-0.02729057018447218</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-0.02155424616786496</v>
+        <v>-0.02351882768013238</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-0.02183543437540375</v>
+        <v>-0.02298146194706113</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-0.01935315453808796</v>
+        <v>-0.02080412864561807</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-0.02544851968254008</v>
+        <v>-0.02573478126734767</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-0.02886299865277028</v>
+        <v>-0.03127056852287055</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-0.02989390622333013</v>
+        <v>-0.03198525123800811</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-0.02880256719235139</v>
+        <v>-0.03210389048138186</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-0.02846738223481082</v>
+        <v>-0.02899425752856441</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-0.0338875790022295</v>
+        <v>-0.03818618033985804</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-0.02346228607671526</v>
+        <v>-0.02790662040023355</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-0.02671953878365238</v>
+        <v>-0.03055698611924651</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-0.02737596545632689</v>
+        <v>-0.03186772817360001</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-0.02969296688447982</v>
+        <v>-0.03261205083566727</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-0.02304969382803437</v>
+        <v>-0.02953483820515902</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-0.02425320096976695</v>
+        <v>-0.02741648249843275</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>-0.02082876510225014</v>
+        <v>-0.02049505117847114</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-0.01834238248267899</v>
+        <v>-0.01995628976127603</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-0.02369176128250521</v>
+        <v>-0.02599673839518137</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>-0.02471994088867233</v>
+        <v>-0.02413805408311564</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-0.0247085086873458</v>
+        <v>-0.02491272796574129</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-0.0235718960641852</v>
+        <v>-0.02531022666186454</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-0.02685757885713611</v>
+        <v>-0.02564860402816798</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-0.02073651657806754</v>
+        <v>-0.02057386273757386</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-0.01865121070061128</v>
+        <v>-0.02073179830185586</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-0.02097649563433071</v>
+        <v>-0.0223522179945428</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-0.03031983316900639</v>
+        <v>-0.03033016917257945</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-0.02211383333357326</v>
+        <v>-0.02541784305660179</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-0.01912143089132317</v>
+        <v>-0.02185430989755583</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-0.01998672732024216</v>
+        <v>-0.01841377066879682</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-0.02290328610619359</v>
+        <v>-0.0267910668564929</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-0.02087384407367232</v>
+        <v>-0.02251230662039875</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-0.02497773255582983</v>
+        <v>-0.02290486084089746</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-0.01930741552389835</v>
+        <v>-0.02123596073544079</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-0.01702922490832345</v>
+        <v>-0.02068049787995356</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-0.02470870213610068</v>
+        <v>-0.02588625850753305</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-0.02427060281660702</v>
+        <v>-0.02523221796049064</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-0.02471845129656947</v>
+        <v>-0.0298872544270338</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.01466438975162095</v>
+        <v>-0.01620704113977031</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-0.01106430751507057</v>
+        <v>-0.01192521592103785</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.01024186549457536</v>
+        <v>-0.009903230142735267</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-0.01150932914024821</v>
+        <v>-0.01188053934696669</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-0.01074095713084</v>
+        <v>-0.01221591384986669</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-0.01481376047461434</v>
+        <v>-0.01415456529032345</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-0.003494357468353827</v>
+        <v>-0.002809601482153608</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-0.007673106448769389</v>
+        <v>-0.009321981681313436</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-0.007721194183357717</v>
+        <v>-0.006770817787730144</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-0.002045994762540528</v>
+        <v>-0.003371303711057162</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-0.01202530794830437</v>
+        <v>-0.01280301330320229</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-0.005715646364142856</v>
+        <v>-0.008864242528406126</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.0006574012501148594</v>
+        <v>-0.003942949941440692</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-0.009726212906924379</v>
+        <v>-0.009749924224602014</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-0.0002569898632966786</v>
+        <v>-0.002078871313836191</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.005897549413765769</v>
+        <v>-0.008493837663667129</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.005010206371907738</v>
+        <v>0.003801793986595031</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-0.01383898526216329</v>
+        <v>-0.01380605944498567</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-0.009643221958122557</v>
+        <v>-0.008973417761894238</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-0.0156993595277673</v>
+        <v>-0.01604133101346766</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.01867574065575521</v>
+        <v>-0.01641543245826103</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-0.01505592721976217</v>
+        <v>-0.01660038433705469</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.01444346152981016</v>
+        <v>-0.01638098284819205</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-0.0182906515619989</v>
+        <v>-0.01824731279933171</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-0.01552020412797315</v>
+        <v>-0.0164061867044363</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-0.01532479652463791</v>
+        <v>-0.01583856355506075</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-0.01744348018355702</v>
+        <v>-0.01790189592338349</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-0.01127949091326964</v>
+        <v>-0.01205979971879429</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-0.0129850789851776</v>
+        <v>-0.01455982645432366</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.01840815932950099</v>
+        <v>-0.01840729185087853</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-0.01123006824986644</v>
+        <v>-0.01026929235546458</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.008953962370880635</v>
+        <v>-0.009747874537344646</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.01281492542577019</v>
+        <v>-0.0165549897738574</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.01907347450059088</v>
+        <v>-0.01834598122621337</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-0.0219742000624162</v>
+        <v>-0.02271763639510518</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-0.02259823450066943</v>
+        <v>-0.0214787500536755</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-0.01701788383939583</v>
+        <v>-0.01546786782963726</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-0.02330495514050189</v>
+        <v>-0.02684629408865765</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-0.02385274791919975</v>
+        <v>-0.02483133642712104</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.02016354041057547</v>
+        <v>-0.02032017732234662</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-0.02145584515874278</v>
+        <v>-0.02184635973658053</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-0.02534784502045746</v>
+        <v>-0.02470206649690547</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-0.02144136455724137</v>
+        <v>-0.02431705156877625</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-0.03494902189357998</v>
+        <v>-0.03180649714861768</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-0.01981920700462496</v>
+        <v>-0.02296213719148955</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.01993349774150849</v>
+        <v>-0.01973590602438498</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-0.02279083280907101</v>
+        <v>-0.02149117624165557</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>-0.02510873856717642</v>
+        <v>-0.0257818046749412</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-0.01637685971457829</v>
+        <v>-0.0167443867890638</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.0156797890077201</v>
+        <v>-0.0181767560498369</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-0.01938833619269399</v>
+        <v>-0.02197606667548142</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-0.02698054919876918</v>
+        <v>-0.0288947815989912</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.02056568418455323</v>
+        <v>-0.02176352362841178</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-0.01993043859282121</v>
+        <v>-0.0225822029434298</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-0.02160943295471916</v>
+        <v>-0.02490768150963488</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-0.02566143477770652</v>
+        <v>-0.0298875373989953</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-0.01803936287344823</v>
+        <v>-0.01964943519001415</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>-0.02344465559243445</v>
+        <v>-0.0254381614523641</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>-0.02384178159196551</v>
+        <v>-0.02510028792199016</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>-0.03455880173361706</v>
+        <v>-0.03653259343821432</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>-0.02551806982940371</v>
+        <v>-0.02879760145387822</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-0.02921750104325824</v>
+        <v>-0.03197001786470429</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-0.03094712780235799</v>
+        <v>-0.03033234688624338</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-0.02197425321328522</v>
+        <v>-0.02708654004667414</v>
       </c>
     </row>
   </sheetData>
